--- a/parabolic/2025/07/31/parabolic.xlsx
+++ b/parabolic/2025/07/31/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>2749</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>185</v>
+        <v>539</v>
       </c>
       <c r="D2" t="n">
-        <v>699800</v>
+        <v>115500</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>6835</t>
+          <t>2764</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="D3" t="n">
-        <v>3094500</v>
+        <v>245000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>8927</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,16 +528,85 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>412</v>
+        <v>183</v>
       </c>
       <c r="D4" t="n">
-        <v>181000</v>
+        <v>873000</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>3880</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>848</v>
+      </c>
+      <c r="D5" t="n">
+        <v>169800</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>6835</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>187</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5532700</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>8927</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>415</v>
+      </c>
+      <c r="D7" t="n">
+        <v>225600</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/31/parabolic.xlsx
+++ b/parabolic/2025/07/31/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2749</t>
+          <t>2533</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="D2" t="n">
-        <v>115500</v>
+        <v>109100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>2749</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>131</v>
+        <v>544</v>
       </c>
       <c r="D3" t="n">
-        <v>245000</v>
+        <v>174700</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>2764</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
-        <v>873000</v>
+        <v>271200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>848</v>
+        <v>182</v>
       </c>
       <c r="D5" t="n">
-        <v>169800</v>
+        <v>955200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6835</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>187</v>
+        <v>730</v>
       </c>
       <c r="D6" t="n">
-        <v>5532700</v>
+        <v>394500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>8927</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,16 +597,108 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>415</v>
+        <v>849</v>
       </c>
       <c r="D7" t="n">
-        <v>225600</v>
+        <v>197500</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>6835</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>185</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6413700</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>8848</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>716</v>
+      </c>
+      <c r="D9" t="n">
+        <v>982400</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>8927</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>416</v>
+      </c>
+      <c r="D10" t="n">
+        <v>285500</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>9534</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>611</v>
+      </c>
+      <c r="D11" t="n">
+        <v>110300</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/31/parabolic.xlsx
+++ b/parabolic/2025/07/31/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2533</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>585</v>
+        <v>815</v>
       </c>
       <c r="D2" t="n">
-        <v>109100</v>
+        <v>124000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2749</t>
+          <t>2533</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>544</v>
+        <v>589</v>
       </c>
       <c r="D3" t="n">
-        <v>174700</v>
+        <v>168500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>2749</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>130</v>
+        <v>545</v>
       </c>
       <c r="D4" t="n">
-        <v>271200</v>
+        <v>250700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>2764</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="D5" t="n">
-        <v>955200</v>
+        <v>314300</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>730</v>
+        <v>180</v>
       </c>
       <c r="D6" t="n">
-        <v>394500</v>
+        <v>1320700</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>849</v>
+        <v>714</v>
       </c>
       <c r="D7" t="n">
-        <v>197500</v>
+        <v>630800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6835</t>
+          <t>3195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>185</v>
+        <v>455</v>
       </c>
       <c r="D8" t="n">
-        <v>6413700</v>
+        <v>122400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8848</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>716</v>
+        <v>771</v>
       </c>
       <c r="D9" t="n">
-        <v>982400</v>
+        <v>103200</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>8927</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>416</v>
+        <v>303</v>
       </c>
       <c r="D10" t="n">
-        <v>285500</v>
+        <v>123300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>9534</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,16 +689,200 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>611</v>
+        <v>843</v>
       </c>
       <c r="D11" t="n">
-        <v>110300</v>
+        <v>323000</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>6071</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>870</v>
+      </c>
+      <c r="D12" t="n">
+        <v>154100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>6835</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>187</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6986400</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>8848</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>717</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1292400</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8920</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>683</v>
+      </c>
+      <c r="D15" t="n">
+        <v>104600</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8927</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>418</v>
+      </c>
+      <c r="D16" t="n">
+        <v>334500</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>9450</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>707</v>
+      </c>
+      <c r="D17" t="n">
+        <v>135600</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>9534</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>609</v>
+      </c>
+      <c r="D18" t="n">
+        <v>173600</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>9831</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>461.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2642400</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
